--- a/Lagrange.xlsx
+++ b/Lagrange.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,7 +444,9 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
       <c r="B7" s="3">
         <v>30</v>
       </c>
@@ -538,7 +540,9 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
       <c r="B19" s="3">
         <v>222</v>
       </c>

--- a/Lagrange.xlsx
+++ b/Lagrange.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,9 +444,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>30</v>
       </c>
@@ -540,9 +538,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>222</v>
       </c>
